--- a/data/trans_bre/P25A_9_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>228,99%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>84,04%</t>
+          <t>69,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-37,27%</t>
+          <t>57,44%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>95,08%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>127,38%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 15,75</t>
+          <t>-2,86; 12,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 8,62</t>
+          <t>-1,55; 9,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 8,83</t>
+          <t>1,37; 9,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,76; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,1; 607,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 244,66</t>
+          <t>3,88; 22,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 253,92</t>
+          <t>-33,18; 388,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-61,14; 11,08</t>
+          <t>-23,86; 238,48</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13,78; 276,26</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23,86; 389,72</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>165,18%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>335,95%</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>699,8%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,88%</t>
+          <t>373,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>748,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>110,72%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,43</t>
+          <t>-1,07; 3,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,19</t>
+          <t>1,14; 4,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,95</t>
+          <t>2,76; 8,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 15,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,05; 578,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,83; 1161,05</t>
+          <t>-0,11; 5,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>234,25; 2312,39</t>
+          <t>-41,92; 357,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 62,65</t>
+          <t>49,43; 1902,53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>226,41; 2177,61</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,71; 393,58</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>107,76%</t>
+          <t>162,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>506,41%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>114,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1192,54%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,05</t>
+          <t>-0,56; 3,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,5</t>
+          <t>0,26; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 2,03</t>
+          <t>-0,37; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-54,05; 34,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-89,88; 436,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>1,5; 5,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 707,49</t>
+          <t>-54,4; 1011,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 241,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-59,39; 935,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>159,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>141,09%</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>205,79%</t>
+          <t>198,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,65%</t>
+          <t>156,75%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>304,97%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,24</t>
+          <t>1,32; 7,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,12</t>
+          <t>0,39; 7,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,86; 335,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,69; 322,48</t>
+          <t>5,7; 14,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,68; 399,59</t>
+          <t>3,53; 611,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,81; 9,68</t>
+          <t>-27,61; 652,47</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>107,84; 728,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>132,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>146,53%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>220,47%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>214,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 4,95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 3,95</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 5,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 8,94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35,57; 286,86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45,77; 301,43</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>99,62; 423,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>110,23; 370,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_9_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,25</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>69,88%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>57,44%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>95,08%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>127,38%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.65843371629677</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.564232617055945</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.739291664996938</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>12.57880340426136</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7423513583436502</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6027682030834819</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.0287740633017</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>1.312244542641074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 12,76</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 9,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 9,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 22,21</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-33,18; 388,02</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-23,86; 238,48</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>13,78; 276,26</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>23,86; 389,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.484314091314212</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.323811205361734</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.862267680994137</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>3.994103644014603</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3367462852764014</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2082001366360531</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1885557952708385</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.2572294935019011</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.64319746097237</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.899427616062642</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.661429937561</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>22.78080111227817</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.885350293737192</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.368133611212666</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.909027201103869</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>4.149932147395056</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>66,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>373,55%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>748,65%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>110,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 3,55</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 4,21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 8,92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,11; 5,52</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-41,92; 357,38</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>49,43; 1902,53</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>226,41; 2177,61</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-11,71; 393,58</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.321049426208238</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.448169067542582</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.486457403196154</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>2.840734129891697</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7335002189675536</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>3.733714469488554</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>7.294028642911193</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>1.245112131786658</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>162,15%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>506,41%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>114,99%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1192,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.7920322832593425</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.147034066115027</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.680605825779222</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>0.1049665243396173</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3617805323311981</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.5816620775849727</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>2.189993722328334</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>-0.09608716441136059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 3,95</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 2,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 2,35</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 5,32</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-54,4; 1011,33</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-59,39; 935,56</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.509363594130262</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.113149686670195</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.258923364898816</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>5.813523990533334</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.814488614915445</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>19.83280542033867</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>21.51413406919641</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>4.213433792017758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,226 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,81</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,7</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>198,92%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>156,75%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>304,97%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.774782875611434</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.320737878581566</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.7371832793467024</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>3.020555301893355</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1.845451286444227</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>6.088540554446314</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.027670738490598</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>12.48048950236219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 7,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 7,43</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 14,82</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 611,85</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-27,61; 652,47</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>107,84; 728,53</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3358408461755201</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3589474136066473</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4828269497086225</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>1.41623812176675</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5001894819049786</v>
+      </c>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-0.6491023604637604</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.884960291855744</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.665753470554107</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.189633541458978</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>5.161335208830047</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>10.72308359340249</v>
+      </c>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>8.315622296990171</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,22</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>132,34%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>146,53%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>220,47%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>214,89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 4,95</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 3,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 5,59</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,52; 8,94</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>35,57; 286,86</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>45,77; 301,43</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>99,62; 423,43</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>110,23; 370,95</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.229022929219413</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.461446663079847</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.813125598812507</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>5.666349178802825</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.003334636866858</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.56309674184523</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.256226208061094</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>1.917139219216391</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4809460310176647</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.191312710180352</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.397456500050525</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>3.483819039338699</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.07105697798661473</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.5181563534364899</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>1.015967735458157</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.791298524186416</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.107518158621705</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.827878959841471</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.499829366197857</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>8.705835465202489</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.484551790015611</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.506149750433037</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>4.294321856321814</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>3.997545623936622</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
